--- a/Data/weapons_melee_table.xlsx
+++ b/Data/weapons_melee_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psturge.WARWICK\My Drive\RuneQuest\RQG\GM_aids\Stat_blocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Stat_blocks\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C2B75B-464D-4E14-A2C8-C0193ED3FD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF1F59F-7752-4ACC-83FE-13A86924449D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="-1"/>
   </bookViews>

--- a/Data/weapons_melee_table.xlsx
+++ b/Data/weapons_melee_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Stat_blocks\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF1F59F-7752-4ACC-83FE-13A86924449D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CFEED5-F4BE-4B48-85E2-667B545204AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="-1"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t xml:space="preserve">Victim must wash in wine to clean off. Until the victim has done so, only creatures of Chaos would associate with the victim. The victim is also exposed to a disease.  from CHA</t>
+  </si>
+  <si>
+    <t>Lesser Hydra</t>
+  </si>
+  <si>
+    <t>Poison POT is systemic and equal to POW; acid is POT equal to POW/2. Wyvern antidote is half-effective against this poison.</t>
+  </si>
+  <si>
+    <t>+ poison+ acid</t>
   </si>
 </sst>
 </file>
@@ -619,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -1467,6 +1476,32 @@
         <v>83</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="0">
+        <v>40</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="0">
+        <v>4</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/Data/weapons_melee_table.xlsx
+++ b/Data/weapons_melee_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Stat_blocks\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CFEED5-F4BE-4B48-85E2-667B545204AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEEA3B5-3ED5-40FD-8397-B9DA40AE7B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="-1"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
@@ -241,19 +241,13 @@
     <t>Stinger</t>
   </si>
   <si>
-    <t>1d3</t>
-  </si>
-  <si>
-    <t>Dancer in the Darkness</t>
-  </si>
-  <si>
-    <t>The bite of a Dancer in Darkness does damage equal to its damage bonus, or 1D3 in any case. If the bite penetrates armor, the vampire will stay attached and take 1D6 hit points (blood) from the victim—increasing the vampire’s hit points in the process.</t>
-  </si>
-  <si>
-    <t>Touch</t>
-  </si>
-  <si>
-    <t>A victim hit by a Dancer in Darkness’ touch must match their magic points against that of the vampire, whether the touch penetrated armor or not. If the vampire wins the contest, the victim gives 1D4 magic points to the vampire</t>
+    <t>Lesser Hydra</t>
+  </si>
+  <si>
+    <t>Poison POT is systemic and equal to POW; acid is POT equal to POW/2. Wyvern antidote is half-effective against this poison.</t>
+  </si>
+  <si>
+    <t>+ poison+ acid</t>
   </si>
   <si>
     <t>Harpy</t>
@@ -269,18 +263,6 @@
   </si>
   <si>
     <t>Victim must wash in wine to clean off. Until the victim has done so, only creatures of Chaos would associate with the victim. The victim is also exposed to a disease.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victim must wash in wine to clean off. Until the victim has done so, only creatures of Chaos would associate with the victim. The victim is also exposed to a disease.  from CHA</t>
-  </si>
-  <si>
-    <t>Lesser Hydra</t>
-  </si>
-  <si>
-    <t>Poison POT is systemic and equal to POW; acid is POT equal to POW/2. Wyvern antidote is half-effective against this poison.</t>
-  </si>
-  <si>
-    <t>+ poison+ acid</t>
   </si>
 </sst>
 </file>
@@ -628,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -642,11 +624,11 @@
     <col min="3" max="3" width="12.826241493225098" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.988998413085938" customWidth="1"/>
+    <col min="6" max="6" width="13.838611602783203" customWidth="1"/>
     <col min="7" max="7" width="14.28674602508545" customWidth="1"/>
-    <col min="8" max="8" width="233.16798400878906" customWidth="1"/>
+    <col min="8" max="8" width="153.10182189941406" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="164.09791564941406" customWidth="1"/>
+    <col min="10" max="10" width="15.217735290527344" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1383,42 +1365,45 @@
         <v>70</v>
       </c>
       <c r="B43" s="0">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C43" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="0">
+        <v>4</v>
+      </c>
+      <c r="F43" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="0">
-        <v>4</v>
-      </c>
-      <c r="F43" s="0" t="s">
+      <c r="G43" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="J43" s="0" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="0">
+        <v>30</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="0">
+        <v>8</v>
+      </c>
+      <c r="F44" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="0">
-        <v>90</v>
-      </c>
-      <c r="C44" s="0">
-        <v>0</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="0">
-        <v>4</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>74</v>
+      <c r="G44" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>77</v>
@@ -1426,80 +1411,25 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B45" s="0">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="E45" s="0">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F45" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="H45" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0" t="s">
         <v>80</v>
-      </c>
-      <c r="B46" s="0">
-        <v>75</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="0">
-        <v>2</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="J46" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" s="0">
-        <v>40</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="0">
-        <v>4</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="J47" s="0" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Data/weapons_melee_table.xlsx
+++ b/Data/weapons_melee_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Stat_blocks\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEEA3B5-3ED5-40FD-8397-B9DA40AE7B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A131ED-FFCE-4A36-86F6-801405BA041F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="-1"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="30090" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="-1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId4"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -263,6 +263,48 @@
   </si>
   <si>
     <t>Victim must wash in wine to clean off. Until the victim has done so, only creatures of Chaos would associate with the victim. The victim is also exposed to a disease.</t>
+  </si>
+  <si>
+    <t>Touch</t>
+  </si>
+  <si>
+    <t>Dancer in Darkness</t>
+  </si>
+  <si>
+    <t>Touch: A victim hit by a Dancer in Darkness’ touch must match their magic points against that of the vampire, whether the touch penetrated armor or not. If the vampire wins the contest, the victim gives 1D4 magic points to the vampire.</t>
+  </si>
+  <si>
+    <t>Bite: The bite of a Dancer in Darkness does damage equal to its damage bonus, or 1D3 in any case. If the bite penetrates armor, the vampire will stay attached and take 1D6 hit points (blood) from the victim—increasing the vampire’s hit points in the process.</t>
+  </si>
+  <si>
+    <t>+special</t>
+  </si>
+  <si>
+    <t>Enthrall</t>
+  </si>
+  <si>
+    <t>Auto CHA vs. POW</t>
+  </si>
+  <si>
+    <t>Fangs</t>
+  </si>
+  <si>
+    <t>2D6</t>
+  </si>
+  <si>
+    <t>Krashtkid</t>
+  </si>
+  <si>
+    <t>Fangs: When a bite does damage, the poison’s POT (equal to the krarshtkid’s CON) must try to overcome the target’s CON. If successful, the target will be paralyzed for 20–CON days. Mineral antidote is half-effective against this venom.</t>
+  </si>
+  <si>
+    <t>Digging Claw</t>
+  </si>
+  <si>
+    <t>Tongue</t>
+  </si>
+  <si>
+    <t>Tongue: A hit by the tongue attacks the POW of the target with a resistance roll. If successful, the target will take 4D3 damage as if from a Disruption spell.</t>
   </si>
 </sst>
 </file>
@@ -610,7 +652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -624,11 +666,11 @@
     <col min="3" max="3" width="12.826241493225098" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.838611602783203" customWidth="1"/>
+    <col min="6" max="6" width="19.620946884155273" customWidth="1"/>
     <col min="7" max="7" width="14.28674602508545" customWidth="1"/>
-    <col min="8" max="8" width="153.10182189941406" customWidth="1"/>
+    <col min="8" max="8" width="238.189697265625" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.217735290527344" customWidth="1"/>
+    <col min="10" max="10" width="20.392431259155273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1432,6 +1474,132 @@
         <v>80</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="0">
+        <v>90</v>
+      </c>
+      <c r="E46" s="0">
+        <v>9</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="0">
+        <v>90</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="0">
+        <v>9</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="0">
+        <v>0</v>
+      </c>
+      <c r="E48" s="0">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="0">
+        <v>50</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="0">
+        <v>7</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="0">
+        <v>50</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="0">
+        <v>6</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="0">
+        <v>75</v>
+      </c>
+      <c r="E51" s="0">
+        <v>6</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/Data/weapons_melee_table.xlsx
+++ b/Data/weapons_melee_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Stat_blocks\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A131ED-FFCE-4A36-86F6-801405BA041F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88742770-D462-43DC-8C11-00A7F8126442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="30090" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="-1"/>
+    <workbookView xWindow="41580" yWindow="2865" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="-1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId4"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
@@ -305,6 +305,24 @@
   </si>
   <si>
     <t>Tongue: A hit by the tongue attacks the POW of the target with a resistance roll. If successful, the target will take 4D3 damage as if from a Disruption spell.</t>
+  </si>
+  <si>
+    <t>2D8+2</t>
+  </si>
+  <si>
+    <t>Cave Troll</t>
+  </si>
+  <si>
+    <t>Equivalent to a maul.</t>
+  </si>
+  <si>
+    <t>D6 5</t>
+  </si>
+  <si>
+    <t>Usual tactic is to hit with the club then strike with the claw, but they cannot parry if they do so.</t>
+  </si>
+  <si>
+    <t>D6 7 —</t>
   </si>
 </sst>
 </file>
@@ -652,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -1600,6 +1618,58 @@
         <v>94</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="0">
+        <v>40</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="0">
+        <v>12</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="0">
+        <v>50</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="0">
+        <v>0</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
